--- a/PythonProgram/linkPrediction/相关讨论.xlsx
+++ b/PythonProgram/linkPrediction/相关讨论.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12270"/>
+    <workbookView windowWidth="18960" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="20">
   <si>
     <t>训练数据60%+bio-CE-GT(只考虑一阶邻居)</t>
   </si>
@@ -71,16 +71,22 @@
   <si>
     <t>训练数据90%+Yeast(考虑二阶邻居，先使用RandomWalk)</t>
   </si>
+  <si>
+    <t>GraphSAGE + USAir</t>
+  </si>
+  <si>
+    <t>GraphSAGE + hamster</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="21">
@@ -101,13 +107,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,81 +114,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -212,11 +143,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,9 +173,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,156 +259,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,7 +271,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,13 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +464,59 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,59 +550,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,149 +558,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +718,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -782,7 +791,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1061,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -2964,31 +2973,31 @@
         <v>9</v>
       </c>
       <c r="B55" s="1">
-        <f>AVERAGE(B45:B54)</f>
+        <f t="shared" ref="B55:H55" si="5">AVERAGE(B45:B54)</f>
         <v>307.7</v>
       </c>
       <c r="C55" s="1">
-        <f>AVERAGE(C45:C54)</f>
+        <f t="shared" si="5"/>
         <v>298.6</v>
       </c>
       <c r="D55" s="1">
-        <f>AVERAGE(D45:D54)</f>
+        <f t="shared" si="5"/>
         <v>25.4</v>
       </c>
       <c r="E55" s="1">
-        <f>AVERAGE(E45:E54)</f>
+        <f t="shared" si="5"/>
         <v>16.3</v>
       </c>
       <c r="F55" s="1">
-        <f>AVERAGE(F45:F54)</f>
+        <f t="shared" si="5"/>
         <v>0.9358</v>
       </c>
       <c r="G55" s="1">
-        <f>AVERAGE(G45:G54)</f>
+        <f t="shared" si="5"/>
         <v>0.9239</v>
       </c>
       <c r="H55" s="1">
-        <f>AVERAGE(H45:H54)</f>
+        <f t="shared" si="5"/>
         <v>0.9357</v>
       </c>
     </row>
@@ -3292,31 +3301,31 @@
         <v>9</v>
       </c>
       <c r="B69" s="1">
-        <f>AVERAGE(B59:B68)</f>
+        <f t="shared" ref="B69:H69" si="6">AVERAGE(B59:B68)</f>
         <v>199.9</v>
       </c>
       <c r="C69" s="1">
-        <f>AVERAGE(C59:C68)</f>
+        <f t="shared" si="6"/>
         <v>187.8</v>
       </c>
       <c r="D69" s="1">
-        <f>AVERAGE(D59:D68)</f>
+        <f t="shared" si="6"/>
         <v>25.2</v>
       </c>
       <c r="E69" s="1">
-        <f>AVERAGE(E59:E68)</f>
+        <f t="shared" si="6"/>
         <v>13.1</v>
       </c>
       <c r="F69" s="1">
-        <f>AVERAGE(F59:F68)</f>
+        <f t="shared" si="6"/>
         <v>0.9098</v>
       </c>
       <c r="G69" s="1">
-        <f>AVERAGE(G59:G68)</f>
+        <f t="shared" si="6"/>
         <v>0.888</v>
       </c>
       <c r="H69" s="1">
-        <f>AVERAGE(H59:H68)</f>
+        <f t="shared" si="6"/>
         <v>0.9098</v>
       </c>
     </row>
@@ -3620,31 +3629,31 @@
         <v>9</v>
       </c>
       <c r="B83" s="1">
-        <f>AVERAGE(B73:B82)</f>
+        <f t="shared" ref="B83:H83" si="7">AVERAGE(B73:B82)</f>
         <v>1168.2</v>
       </c>
       <c r="C83" s="1">
-        <f>AVERAGE(C73:C82)</f>
+        <f t="shared" si="7"/>
         <v>1127.2</v>
       </c>
       <c r="D83" s="1">
-        <f>AVERAGE(D73:D82)</f>
+        <f t="shared" si="7"/>
         <v>126.8</v>
       </c>
       <c r="E83" s="1">
-        <f>AVERAGE(E73:E82)</f>
+        <f t="shared" si="7"/>
         <v>85.8</v>
       </c>
       <c r="F83" s="1">
-        <f>AVERAGE(F73:F82)</f>
+        <f t="shared" si="7"/>
         <v>0.915</v>
       </c>
       <c r="G83" s="1">
-        <f>AVERAGE(G73:G82)</f>
+        <f t="shared" si="7"/>
         <v>0.9022</v>
       </c>
       <c r="H83" s="1">
-        <f>AVERAGE(H73:H82)</f>
+        <f t="shared" si="7"/>
         <v>0.915</v>
       </c>
     </row>
@@ -3818,31 +3827,31 @@
         <v>9</v>
       </c>
       <c r="B92" s="1">
-        <f>AVERAGE(B87:B91)</f>
+        <f t="shared" ref="B92:H92" si="8">AVERAGE(B87:B91)</f>
         <v>1460.2</v>
       </c>
       <c r="C92" s="1">
-        <f>AVERAGE(C87:C91)</f>
+        <f t="shared" si="8"/>
         <v>1348.6</v>
       </c>
       <c r="D92" s="1">
-        <f>AVERAGE(D87:D91)</f>
+        <f t="shared" si="8"/>
         <v>323.4</v>
       </c>
       <c r="E92" s="1">
-        <f>AVERAGE(E87:E91)</f>
+        <f t="shared" si="8"/>
         <v>211.8</v>
       </c>
       <c r="F92" s="1">
-        <f>AVERAGE(F87:F91)</f>
+        <f t="shared" si="8"/>
         <v>0.84</v>
       </c>
       <c r="G92" s="1">
-        <f>AVERAGE(G87:G91)</f>
+        <f t="shared" si="8"/>
         <v>0.8188</v>
       </c>
       <c r="H92" s="1">
-        <f>AVERAGE(H87:H91)</f>
+        <f t="shared" si="8"/>
         <v>0.84</v>
       </c>
     </row>
@@ -4149,36 +4158,302 @@
         <v>9</v>
       </c>
       <c r="B106" s="1">
-        <f>AVERAGE(B96:B105)</f>
+        <f t="shared" ref="B106:H106" si="9">AVERAGE(B96:B105)</f>
         <v>1134.1</v>
       </c>
       <c r="C106" s="1">
-        <f>AVERAGE(C96:C105)</f>
+        <f t="shared" si="9"/>
         <v>1127.9</v>
       </c>
       <c r="D106" s="1">
-        <f>AVERAGE(D96:D105)</f>
+        <f t="shared" si="9"/>
         <v>42.1</v>
       </c>
       <c r="E106" s="1">
-        <f>AVERAGE(E96:E105)</f>
+        <f t="shared" si="9"/>
         <v>35.9</v>
       </c>
       <c r="F106" s="1">
-        <f>AVERAGE(F96:F105)</f>
+        <f t="shared" si="9"/>
         <v>0.9666</v>
       </c>
       <c r="G106" s="1">
-        <f>AVERAGE(G96:G105)</f>
+        <f t="shared" si="9"/>
         <v>0.9641</v>
       </c>
       <c r="H106" s="1">
-        <f>AVERAGE(H96:H105)</f>
+        <f t="shared" si="9"/>
         <v>0.9666</v>
       </c>
     </row>
+    <row r="110" customHeight="1" spans="1:8">
+      <c r="A110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" customHeight="1" spans="2:8">
+      <c r="B111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:7">
+      <c r="A112" s="2">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1">
+        <v>187</v>
+      </c>
+      <c r="C112" s="1">
+        <v>185</v>
+      </c>
+      <c r="D112" s="1">
+        <v>28</v>
+      </c>
+      <c r="E112" s="1">
+        <v>26</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.873</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:7">
+      <c r="A113" s="2">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1">
+        <v>192</v>
+      </c>
+      <c r="C113" s="1">
+        <v>181</v>
+      </c>
+      <c r="D113" s="1">
+        <v>32</v>
+      </c>
+      <c r="E113" s="1">
+        <v>21</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.857</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:7">
+      <c r="A114" s="2">
+        <v>3</v>
+      </c>
+      <c r="B114" s="1">
+        <v>194</v>
+      </c>
+      <c r="C114" s="1">
+        <v>182</v>
+      </c>
+      <c r="D114" s="1">
+        <v>31</v>
+      </c>
+      <c r="E114" s="1">
+        <v>19</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.883</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.862</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:7">
+      <c r="A115" s="2">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
+        <v>193</v>
+      </c>
+      <c r="C115" s="1">
+        <v>181</v>
+      </c>
+      <c r="D115" s="1">
+        <v>32</v>
+      </c>
+      <c r="E115" s="1">
+        <v>20</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.878</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.858</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="2">
+        <v>5</v>
+      </c>
+      <c r="B116" s="1">
+        <v>196</v>
+      </c>
+      <c r="C116" s="1">
+        <v>180</v>
+      </c>
+      <c r="D116" s="1">
+        <v>33</v>
+      </c>
+      <c r="E116" s="1">
+        <v>17</v>
+      </c>
+      <c r="F116" s="4">
+        <v>0.883</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0.856</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:7">
+      <c r="A117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1">
+        <f>AVERAGE(B112:B116)</f>
+        <v>192.4</v>
+      </c>
+      <c r="C117" s="1">
+        <f>AVERAGE(C112:C116)</f>
+        <v>181.8</v>
+      </c>
+      <c r="D117" s="1">
+        <f>AVERAGE(D112:D116)</f>
+        <v>31.2</v>
+      </c>
+      <c r="E117" s="1">
+        <f>AVERAGE(E112:E116)</f>
+        <v>20.6</v>
+      </c>
+      <c r="F117" s="1">
+        <f>AVERAGE(F112:F116)</f>
+        <v>0.8786</v>
+      </c>
+      <c r="G117" s="1">
+        <f>AVERAGE(G112:G116)</f>
+        <v>0.8604</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:1">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:1">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:8">
+      <c r="A120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" customHeight="1" spans="2:8">
+      <c r="B121" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:7">
+      <c r="A122" s="2">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1088</v>
+      </c>
+      <c r="C122" s="1">
+        <v>976</v>
+      </c>
+      <c r="D122" s="1">
+        <v>278</v>
+      </c>
+      <c r="E122" s="1">
+        <v>166</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.823</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:1">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:1">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:1">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126" s="2"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:1">
+      <c r="A127" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A15:H15"/>
@@ -4189,6 +4464,8 @@
     <mergeCell ref="A71:H71"/>
     <mergeCell ref="A85:H85"/>
     <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="A120:H120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PythonProgram/linkPrediction/相关讨论.xlsx
+++ b/PythonProgram/linkPrediction/相关讨论.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="21">
   <si>
     <t>训练数据60%+bio-CE-GT(只考虑一阶邻居)</t>
   </si>
@@ -77,16 +77,19 @@
   <si>
     <t>GraphSAGE + hamster</t>
   </si>
+  <si>
+    <t>USAir + weight(1: 1)(第12个模型)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="21">
@@ -106,21 +109,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -143,15 +183,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,53 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,7 +215,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,26 +229,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,7 +262,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,175 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +453,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,10 +480,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,56 +553,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4342,27 +4345,27 @@
         <v>9</v>
       </c>
       <c r="B117" s="1">
-        <f>AVERAGE(B112:B116)</f>
+        <f t="shared" ref="B117:G117" si="10">AVERAGE(B112:B116)</f>
         <v>192.4</v>
       </c>
       <c r="C117" s="1">
-        <f>AVERAGE(C112:C116)</f>
+        <f t="shared" si="10"/>
         <v>181.8</v>
       </c>
       <c r="D117" s="1">
-        <f>AVERAGE(D112:D116)</f>
+        <f t="shared" si="10"/>
         <v>31.2</v>
       </c>
       <c r="E117" s="1">
-        <f>AVERAGE(E112:E116)</f>
+        <f t="shared" si="10"/>
         <v>20.6</v>
       </c>
       <c r="F117" s="1">
-        <f>AVERAGE(F112:F116)</f>
+        <f t="shared" si="10"/>
         <v>0.8786</v>
       </c>
       <c r="G117" s="1">
-        <f>AVERAGE(G112:G116)</f>
+        <f t="shared" si="10"/>
         <v>0.8604</v>
       </c>
     </row>
@@ -4441,19 +4444,176 @@
     </row>
     <row r="126" customHeight="1" spans="1:8">
       <c r="A126" s="2"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="1"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" customHeight="1" spans="1:1">
-      <c r="A127" s="2"/>
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" customHeight="1" spans="2:8">
+      <c r="B128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129" s="2">
+        <v>1</v>
+      </c>
+      <c r="B129" s="1">
+        <v>193</v>
+      </c>
+      <c r="C129" s="1">
+        <v>200</v>
+      </c>
+      <c r="D129" s="1">
+        <v>13</v>
+      </c>
+      <c r="E129" s="1">
+        <v>20</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.923</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.937</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:8">
+      <c r="A130" s="2">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1">
+        <v>199</v>
+      </c>
+      <c r="C130" s="1">
+        <v>193</v>
+      </c>
+      <c r="D130" s="1">
+        <v>20</v>
+      </c>
+      <c r="E130" s="1">
+        <v>14</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.909</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:8">
+      <c r="A131" s="2">
+        <v>3</v>
+      </c>
+      <c r="B131" s="1">
+        <v>197</v>
+      </c>
+      <c r="C131" s="1">
+        <v>190</v>
+      </c>
+      <c r="D131" s="1">
+        <v>23</v>
+      </c>
+      <c r="E131" s="1">
+        <v>16</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.908</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.895</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.947</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:8">
+      <c r="A132" s="2">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1">
+        <v>196</v>
+      </c>
+      <c r="C132" s="1">
+        <v>183</v>
+      </c>
+      <c r="D132" s="1">
+        <v>30</v>
+      </c>
+      <c r="E132" s="1">
+        <v>17</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.867</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:8">
+      <c r="A133" s="2">
+        <v>5</v>
+      </c>
+      <c r="B133" s="1">
+        <v>196</v>
+      </c>
+      <c r="C133" s="1">
+        <v>195</v>
+      </c>
+      <c r="D133" s="1">
+        <v>18</v>
+      </c>
+      <c r="E133" s="1">
+        <v>17</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.918</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.916</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.949</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A15:H15"/>
@@ -4466,6 +4626,7 @@
     <mergeCell ref="A94:H94"/>
     <mergeCell ref="A110:H110"/>
     <mergeCell ref="A120:H120"/>
+    <mergeCell ref="A127:H127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
